--- a/Zeitaufzeichnung/Sprint4 5Schuhljahr.xlsx
+++ b/Zeitaufzeichnung/Sprint4 5Schuhljahr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuhljahr\Syp\Projekt\Multiflex\Zeitaufzeichnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\Zeitaufzeichnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34090C9-1940-438A-99F9-7278DC26B1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D576102A-50EC-4854-956E-89D41EC47788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1695" windowWidth="29040" windowHeight="17640" xr2:uid="{DE4AF553-B22C-4BF0-B016-1373DC96BC61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="1" xr2:uid="{DE4AF553-B22C-4BF0-B016-1373DC96BC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hauptseite" sheetId="1" r:id="rId1"/>
@@ -834,71 +834,71 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1217,46 +1217,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0065E909-0803-4647-889F-A411B5E1985E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="50"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="31">
         <f>'Info Seite'!F17</f>
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="32">
         <f>'Info Seite'!O16</f>
-        <v>0.87500000000000022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.85416666666666685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1265,13 +1265,13 @@
         <v>0.83333333333333348</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="30">
         <f>SUM(B3+B5+B4)</f>
-        <v>2.5625</v>
+        <v>2.5625000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1287,147 +1287,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74428210-A4B0-4DCC-AF03-A9A1BB509680}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -1458,79 +1458,79 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:29" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="68" t="str">
+      <c r="P7" s="66" t="str">
         <f>G7</f>
         <v>Sprint: September</v>
       </c>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="70"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="68"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="68" t="str">
+      <c r="Y7" s="66" t="str">
         <f>G7</f>
         <v>Sprint: September</v>
       </c>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="70"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="68"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1549,11 +1549,11 @@
       <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1572,11 +1572,11 @@
       <c r="O8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="63" t="s">
+      <c r="P8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
       <c r="S8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1595,19 +1595,19 @@
       <c r="X8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="63" t="s">
+      <c r="Y8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="65"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="71"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="8"/>
     </row>
-    <row r="9" spans="1:29" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="72">
         <v>44914</v>
       </c>
       <c r="C9" s="39">
@@ -1625,11 +1625,11 @@
         <v>16</v>
       </c>
       <c r="H9" s="53"/>
-      <c r="I9" s="60"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="61">
         <v>44906</v>
       </c>
       <c r="L9" s="41">
@@ -1647,11 +1647,11 @@
         <v>16</v>
       </c>
       <c r="Q9" s="53"/>
-      <c r="R9" s="60"/>
+      <c r="R9" s="54"/>
       <c r="S9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="57">
+      <c r="T9" s="61">
         <v>44906</v>
       </c>
       <c r="U9" s="41">
@@ -1669,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="Z9" s="53"/>
-      <c r="AA9" s="60"/>
+      <c r="AA9" s="54"/>
       <c r="AB9" s="11" t="s">
         <v>12</v>
       </c>
@@ -1678,11 +1678,11 @@
         <v>2.5625000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="39">
         <v>0.75</v>
       </c>
@@ -1698,11 +1698,11 @@
         <v>16</v>
       </c>
       <c r="H10" s="53"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="57"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="41">
         <v>0.5</v>
       </c>
@@ -1718,11 +1718,11 @@
         <v>16</v>
       </c>
       <c r="Q10" s="53"/>
-      <c r="R10" s="60"/>
+      <c r="R10" s="54"/>
       <c r="S10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="57"/>
+      <c r="T10" s="61"/>
       <c r="U10" s="41">
         <v>0.5</v>
       </c>
@@ -1738,11 +1738,11 @@
         <v>16</v>
       </c>
       <c r="Z10" s="53"/>
-      <c r="AA10" s="60"/>
+      <c r="AA10" s="54"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>3</v>
       </c>
@@ -1764,11 +1764,11 @@
         <v>16</v>
       </c>
       <c r="H11" s="53"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="61">
         <v>44918</v>
       </c>
       <c r="L11" s="41">
@@ -1786,11 +1786,11 @@
         <v>16</v>
       </c>
       <c r="Q11" s="53"/>
-      <c r="R11" s="60"/>
+      <c r="R11" s="54"/>
       <c r="S11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="61">
         <v>44918</v>
       </c>
       <c r="U11" s="41">
@@ -1808,11 +1808,11 @@
         <v>16</v>
       </c>
       <c r="Z11" s="53"/>
-      <c r="AA11" s="60"/>
+      <c r="AA11" s="54"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>3</v>
       </c>
@@ -1834,11 +1834,11 @@
         <v>16</v>
       </c>
       <c r="H12" s="53"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="57"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="41">
         <v>0.91666666666666663</v>
       </c>
@@ -1854,11 +1854,11 @@
         <v>16</v>
       </c>
       <c r="Q12" s="53"/>
-      <c r="R12" s="60"/>
+      <c r="R12" s="54"/>
       <c r="S12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="57"/>
+      <c r="T12" s="61"/>
       <c r="U12" s="41">
         <v>0.91666666666666663</v>
       </c>
@@ -1874,11 +1874,11 @@
         <v>16</v>
       </c>
       <c r="Z12" s="53"/>
-      <c r="AA12" s="60"/>
+      <c r="AA12" s="54"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="53"/>
-      <c r="I13" s="60"/>
+      <c r="I13" s="54"/>
       <c r="J13" s="10" t="s">
         <v>10</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="53"/>
-      <c r="R13" s="60"/>
+      <c r="R13" s="54"/>
       <c r="S13" s="7" t="s">
         <v>11</v>
       </c>
@@ -1944,11 +1944,11 @@
         <v>16</v>
       </c>
       <c r="Z13" s="53"/>
-      <c r="AA13" s="60"/>
+      <c r="AA13" s="54"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>3</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="53"/>
-      <c r="I14" s="60"/>
+      <c r="I14" s="54"/>
       <c r="J14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="53"/>
-      <c r="R14" s="60"/>
+      <c r="R14" s="54"/>
       <c r="S14" s="7" t="s">
         <v>11</v>
       </c>
@@ -2014,15 +2014,15 @@
         <v>16</v>
       </c>
       <c r="Z14" s="53"/>
-      <c r="AA14" s="60"/>
+      <c r="AA14" s="54"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="51">
         <v>44934</v>
       </c>
       <c r="C15" s="39">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="53"/>
-      <c r="I15" s="60"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="12" t="s">
         <v>10</v>
       </c>
@@ -2051,18 +2051,18 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="M15" s="42">
-        <v>0.89583333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="36">
         <f t="shared" si="1"/>
-        <v>0.10416666666666674</v>
-      </c>
-      <c r="P15" s="54" t="s">
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="P15" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
       <c r="S15" s="28" t="s">
         <v>11</v>
       </c>
@@ -2080,35 +2080,35 @@
         <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
-      <c r="Y15" s="54" t="s">
+      <c r="Y15" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="60"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="14"/>
     </row>
-    <row r="16" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="62"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="40">
         <v>0.625</v>
       </c>
       <c r="D16" s="42">
-        <v>0.72916666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="36">
         <f t="shared" si="3"/>
-        <v>0.10416666666666663</v>
-      </c>
-      <c r="G16" s="55" t="s">
+        <v>0.125</v>
+      </c>
+      <c r="G16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -2116,7 +2116,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="27">
         <f>SUM(O7:O15)</f>
-        <v>0.87500000000000022</v>
+        <v>0.85416666666666685</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
@@ -2130,13 +2130,13 @@
         <f>SUM(X7:X15)</f>
         <v>0.83333333333333348</v>
       </c>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
     </row>
-    <row r="17" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="21"/>
       <c r="C17" s="24"/>
@@ -2144,11 +2144,11 @@
       <c r="E17" s="1"/>
       <c r="F17" s="26">
         <f>SUM(F8:F16)</f>
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
+        <v>0.875</v>
+      </c>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -2170,7 +2170,7 @@
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="F18" s="22"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -2192,24 +2192,20 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A1:AA4"/>
     <mergeCell ref="A6:AA6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="Y15:AA15"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="Y16:AA16"/>
@@ -2219,17 +2215,21 @@
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="Y11:AA11"/>
     <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="P10:R10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
